--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/81.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/81.xlsx
@@ -479,13 +479,13 @@
         <v>-0.08871686597848159</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.59676141112468</v>
+        <v>-2.646670610182297</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1069645717274446</v>
+        <v>-0.03463651835459936</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1943649088579032</v>
+        <v>0.2267364487763064</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.08006769269951801</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.737076102493278</v>
+        <v>-2.799937577042317</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.183620622222494</v>
+        <v>-0.1121934216892057</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2170295612058611</v>
+        <v>0.2428194471014759</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.07300669306412605</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.967084508743092</v>
+        <v>-3.034950992365525</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2882982583693794</v>
+        <v>-0.2118599495559291</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2204097415963988</v>
+        <v>0.2585554005615758</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.07115111968489288</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.151297935860293</v>
+        <v>-3.228641061997699</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3528595818445149</v>
+        <v>-0.2755387178118101</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2597380367537903</v>
+        <v>0.3000458645180392</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.07520864087598489</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.313895774193542</v>
+        <v>-3.376692597150845</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.390520963792354</v>
+        <v>-0.3328871193637229</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2372398927505847</v>
+        <v>0.2890349665407065</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.08270223184994302</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.060460619710174</v>
+        <v>-3.134667228767404</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.451810062836736</v>
+        <v>-0.3986725536370918</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2388397146856948</v>
+        <v>0.2871155461709804</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.08810033888142359</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.748820125124062</v>
+        <v>-2.818009526694362</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4661035538963268</v>
+        <v>-0.4324450813499852</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2424339772337712</v>
+        <v>0.2768493613399571</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.08435437909988158</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.321774404568081</v>
+        <v>-2.390910133118827</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4934377589454678</v>
+        <v>-0.4551341305250129</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2233318715586987</v>
+        <v>0.2462819667833747</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.06410902553715365</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.960034720633545</v>
+        <v>-2.031769321187915</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5527000915810161</v>
+        <v>-0.5113566185076489</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2692948838377556</v>
+        <v>0.3047263957914038</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.02095059140368196</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.450333159885345</v>
+        <v>-1.569434200195968</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6705227381531756</v>
+        <v>-0.6153834692924443</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2870161291006705</v>
+        <v>0.3062591264520717</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.04697005706742407</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.9679115212460542</v>
+        <v>-1.121331578195937</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8946850547163592</v>
+        <v>-0.7940981565484229</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3138764257839782</v>
+        <v>0.3166466854977679</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1399288201459585</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3910619634326294</v>
+        <v>-0.5718747778166214</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.223922065786991</v>
+        <v>-1.070867961243157</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3791019528760922</v>
+        <v>0.3482442360773778</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2549423500204167</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2157011539719038</v>
+        <v>-0.007720718889707568</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.589514008715868</v>
+        <v>-1.448767493508132</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4676807327602127</v>
+        <v>0.4260304695864413</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3867663031699741</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7343459816032614</v>
+        <v>0.4856148403393126</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.965774074201745</v>
+        <v>-1.866106936414345</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5521675548240305</v>
+        <v>0.4952875723518601</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5326484990703467</v>
       </c>
       <c r="E16" t="n">
-        <v>1.29998458745738</v>
+        <v>1.064115453424694</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.388875437741196</v>
+        <v>-2.331878960419766</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6522226021618424</v>
+        <v>0.5860346202418198</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6900904113091089</v>
       </c>
       <c r="E17" t="n">
-        <v>1.804925717323562</v>
+        <v>1.579286782801972</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.707574239358975</v>
+        <v>-2.672983198097885</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7785798687637375</v>
+        <v>0.7064634578657238</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8582293437203002</v>
       </c>
       <c r="E18" t="n">
-        <v>2.24259137670308</v>
+        <v>2.038620484143641</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.005816301478624</v>
+        <v>-2.993480045870717</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8979187781382928</v>
+        <v>0.8384948165234062</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.03278473806796</v>
       </c>
       <c r="E19" t="n">
-        <v>2.601266209236957</v>
+        <v>2.410372015986996</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.274869694731479</v>
+        <v>-3.294881192135583</v>
       </c>
       <c r="G19" t="n">
-        <v>1.024726776120305</v>
+        <v>0.9773585066020203</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.202698968273791</v>
       </c>
       <c r="E20" t="n">
-        <v>2.947701153629854</v>
+        <v>2.75206055767344</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.519004778735793</v>
+        <v>-3.543173495472612</v>
       </c>
       <c r="G20" t="n">
-        <v>1.128233364567834</v>
+        <v>1.082890031696353</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.357879724555048</v>
       </c>
       <c r="E21" t="n">
-        <v>3.278528227904768</v>
+        <v>3.09024815467535</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.704158398576201</v>
+        <v>-3.760840156828428</v>
       </c>
       <c r="G21" t="n">
-        <v>1.279146037615606</v>
+        <v>1.232252896304508</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.491640518974759</v>
       </c>
       <c r="E22" t="n">
-        <v>3.508440266687656</v>
+        <v>3.341158542517319</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.899362291328063</v>
+        <v>-3.947733270438922</v>
       </c>
       <c r="G22" t="n">
-        <v>1.373693501242383</v>
+        <v>1.324766884395007</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.597695112130583</v>
       </c>
       <c r="E23" t="n">
-        <v>3.752497585805684</v>
+        <v>3.593424174103023</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.032599158203339</v>
+        <v>-4.078413349837269</v>
       </c>
       <c r="G23" t="n">
-        <v>1.463590929629633</v>
+        <v>1.404353603741831</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.674188185117422</v>
       </c>
       <c r="E24" t="n">
-        <v>3.892718349390063</v>
+        <v>3.755032416138249</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.163701607670333</v>
+        <v>-4.219047944600821</v>
       </c>
       <c r="G24" t="n">
-        <v>1.514461363673804</v>
+        <v>1.464817480110573</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.71986215439252</v>
       </c>
       <c r="E25" t="n">
-        <v>4.030460395344137</v>
+        <v>3.913981404022853</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.141176627157351</v>
+        <v>-4.179523254985517</v>
       </c>
       <c r="G25" t="n">
-        <v>1.529747805595141</v>
+        <v>1.467147987016427</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.734360146114029</v>
       </c>
       <c r="E26" t="n">
-        <v>4.035151905189683</v>
+        <v>3.941000890002792</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.009050730794772</v>
+        <v>-4.060470093448018</v>
       </c>
       <c r="G26" t="n">
-        <v>1.485709702971901</v>
+        <v>1.442595630173934</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.71957517687082</v>
       </c>
       <c r="E27" t="n">
-        <v>4.176727912517796</v>
+        <v>4.09767243408042</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.891575434048021</v>
+        <v>-3.926795303526838</v>
       </c>
       <c r="G27" t="n">
-        <v>1.409994150160397</v>
+        <v>1.379405408380128</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.677826421622499</v>
       </c>
       <c r="E28" t="n">
-        <v>4.120584714223137</v>
+        <v>4.016878681714311</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.750968285714923</v>
+        <v>-3.789286857191958</v>
       </c>
       <c r="G28" t="n">
-        <v>1.352889106958507</v>
+        <v>1.311393153715952</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.612193151067727</v>
       </c>
       <c r="E29" t="n">
-        <v>4.053999673942552</v>
+        <v>3.956834430771172</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.680406867582278</v>
+        <v>-3.720652788397837</v>
       </c>
       <c r="G29" t="n">
-        <v>1.263552805593865</v>
+        <v>1.219610460516874</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.527872305481095</v>
       </c>
       <c r="E30" t="n">
-        <v>3.915220762838005</v>
+        <v>3.812787024860876</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.531754255602196</v>
+        <v>-3.542740451792121</v>
       </c>
       <c r="G30" t="n">
-        <v>1.185942229239705</v>
+        <v>1.142245072274767</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.430272575957134</v>
       </c>
       <c r="E31" t="n">
-        <v>3.721807597193075</v>
+        <v>3.635827079391901</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.394012819568799</v>
+        <v>-3.391964096015602</v>
       </c>
       <c r="G31" t="n">
-        <v>1.057771058545161</v>
+        <v>0.9949230022510109</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.32440613308737</v>
       </c>
       <c r="E32" t="n">
-        <v>3.533700741435853</v>
+        <v>3.469915237061541</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.262373029985588</v>
+        <v>-3.254540733615128</v>
       </c>
       <c r="G32" t="n">
-        <v>1.000472670488741</v>
+        <v>0.9241331688249244</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.216296285835125</v>
       </c>
       <c r="E33" t="n">
-        <v>3.367332678439285</v>
+        <v>3.31716060356999</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.112084915710807</v>
+        <v>-3.110163055658373</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8848329300186631</v>
+        <v>0.8038019185092999</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.109348271278394</v>
       </c>
       <c r="E34" t="n">
-        <v>3.084879632878613</v>
+        <v>3.043353793522898</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.914548991251398</v>
+        <v>-2.93227267619702</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7983833832170703</v>
+        <v>0.704616008135854</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.006777482391499</v>
       </c>
       <c r="E35" t="n">
-        <v>2.770359397817235</v>
+        <v>2.748942643173904</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.822399125804917</v>
+        <v>-2.849599148305174</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7731174191827819</v>
+        <v>0.6560053301990338</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9117465490724591</v>
       </c>
       <c r="E36" t="n">
-        <v>2.478695330196314</v>
+        <v>2.46812906439233</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.745949228498609</v>
+        <v>-2.772742433907474</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7047239640956384</v>
+        <v>0.6085815578991653</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8242096537298633</v>
       </c>
       <c r="E37" t="n">
-        <v>2.178663150890409</v>
+        <v>2.19530300679345</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.6976215537558</v>
+        <v>-2.710967838004401</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6551002079147397</v>
+        <v>0.5400209845465929</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7449133600537655</v>
       </c>
       <c r="E38" t="n">
-        <v>1.9525814139575</v>
+        <v>1.963361151998345</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.623201472461709</v>
+        <v>-2.634808872860901</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6565945135727724</v>
+        <v>0.5451193114835299</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6740742270471285</v>
       </c>
       <c r="E39" t="n">
-        <v>1.675934813239469</v>
+        <v>1.696522075762423</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.496186711370279</v>
+        <v>-2.512191029928148</v>
       </c>
       <c r="G39" t="n">
-        <v>0.579936023395016</v>
+        <v>0.4799639252692419</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6100285786975831</v>
       </c>
       <c r="E40" t="n">
-        <v>1.445558624821576</v>
+        <v>1.48218009201556</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.407828112850465</v>
+        <v>-2.449994368916765</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5334808051298234</v>
+        <v>0.4406545376528295</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5529387602368784</v>
       </c>
       <c r="E41" t="n">
-        <v>1.168771742347894</v>
+        <v>1.195188016778529</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.290624535765204</v>
+        <v>-2.336050817848723</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4980968669889616</v>
+        <v>0.3932338149563447</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5016987018241413</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9202772503065231</v>
+        <v>0.9506549595326369</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.184941750343038</v>
+        <v>-2.219401658658627</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4879666944688531</v>
+        <v>0.3820991030816322</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4543516949599684</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7643449300891146</v>
+        <v>0.8083665648540824</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.063149130085926</v>
+        <v>-2.070605410359171</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4130873429051708</v>
+        <v>0.3247604602605473</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4111216920002342</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5820548878260388</v>
+        <v>0.6164074501025196</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.996653748144822</v>
+        <v>-2.006538122632201</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3667254425035206</v>
+        <v>0.2890130093963436</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3708129949040613</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5003072195214966</v>
+        <v>0.5370903156948185</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.907368680117027</v>
+        <v>-1.929764357446539</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3212296294628528</v>
+        <v>0.2510771631439679</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3323825692361129</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2763010426515606</v>
+        <v>0.3097795885982615</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.858109046580147</v>
+        <v>-1.884214261465641</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2547488856179912</v>
+        <v>0.1891323993720816</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2955662803585845</v>
       </c>
       <c r="E47" t="n">
-        <v>0.136946976348841</v>
+        <v>0.1874868333862154</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.760402803768492</v>
+        <v>-1.777515958116689</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2120428497527689</v>
+        <v>0.1450412336499645</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2594786828965827</v>
       </c>
       <c r="E48" t="n">
-        <v>0.06711959775066288</v>
+        <v>0.09522840205927388</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.744707105073058</v>
+        <v>-1.752560443706866</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1864652162526624</v>
+        <v>0.1395214515253946</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2245802158397913</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.04111631562437073</v>
+        <v>-0.02730405197873421</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.672832832683713</v>
+        <v>-1.695515172731296</v>
       </c>
       <c r="G49" t="n">
-        <v>0.134848239300151</v>
+        <v>0.07403182878024862</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1912825551425814</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.1566828656132392</v>
+        <v>-0.1327812941328363</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.652979914655564</v>
+        <v>-1.657626900291707</v>
       </c>
       <c r="G50" t="n">
-        <v>0.09613901362965874</v>
+        <v>0.04375475646579828</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1593062601568695</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.2615373787563816</v>
+        <v>-0.2408842448003389</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.655382392201274</v>
+        <v>-1.65277803091156</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05248821063615372</v>
+        <v>0.01402905244312818</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1289908366721067</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3550443177086264</v>
+        <v>-0.3335049690092687</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.624061135688231</v>
+        <v>-1.618046707894819</v>
       </c>
       <c r="G52" t="n">
-        <v>0.005441979235192271</v>
+        <v>-0.01197003624461129</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.09991433136555224</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4484237832394308</v>
+        <v>-0.4386138190746151</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.574452627524251</v>
+        <v>-1.569277450582044</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.01917685896106634</v>
+        <v>-0.02977728032294759</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.071849930226433</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5227255399222327</v>
+        <v>-0.5105088287669691</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.601663628596689</v>
+        <v>-1.575455947037502</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.03341545715974975</v>
+        <v>-0.03646750022619703</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.04482758805637745</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5823843209976672</v>
+        <v>-0.5664727103826639</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.555550575831152</v>
+        <v>-1.559659611430404</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08099414931151226</v>
+        <v>-0.08065015404982635</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.01859369626390192</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6358267905356856</v>
+        <v>-0.6066170794055443</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.530704237222466</v>
+        <v>-1.516757791027945</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1146141968552187</v>
+        <v>-0.1134852336825581</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.007243395014408983</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.7207741027104482</v>
+        <v>-0.7040464182299558</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.608450215966865</v>
+        <v>-1.599905227285624</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1328648532655508</v>
+        <v>-0.1238105808192259</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.03264843451760809</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7803462750497845</v>
+        <v>-0.7790428745635738</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.63034270873806</v>
+        <v>-1.600842675365786</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1579289335558355</v>
+        <v>-0.1465435442829795</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.05777564553577653</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.8981182982057739</v>
+        <v>-0.8906754361874174</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.640231962590852</v>
+        <v>-1.612325042026245</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1670069929085536</v>
+        <v>-0.1600118126669302</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.08270395360587825</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.020204900229079</v>
+        <v>-0.9798793847652046</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.658987633321532</v>
+        <v>-1.627055236290387</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2106834125704821</v>
+        <v>-0.1919881239868006</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1071537570003196</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.118960206604741</v>
+        <v>-1.059552712848127</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.695398677882038</v>
+        <v>-1.652118096739319</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2135268627654815</v>
+        <v>-0.2004526031387101</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1311099987167905</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.188406994700628</v>
+        <v>-1.099909334266515</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.648015160346834</v>
+        <v>-1.623859251944228</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2402712745202071</v>
+        <v>-0.2301526904929568</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1543853158746226</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.20648138403538</v>
+        <v>-1.106913053397613</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.722563934903719</v>
+        <v>-1.684254817197174</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2687801867927648</v>
+        <v>-0.2604078056630442</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1768934079715931</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.292780280429817</v>
+        <v>-1.165875305060202</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.799997024340946</v>
+        <v>-1.785896878135884</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2823490920883789</v>
+        <v>-0.2698585265492554</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1988083696754883</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.301893715181786</v>
+        <v>-1.162145640121887</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.866521072553856</v>
+        <v>-1.859205074036264</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3131781426152862</v>
+        <v>-0.2976208959134735</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2198251217917426</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.330721006047606</v>
+        <v>-1.188589360982976</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.940698405418602</v>
+        <v>-1.963726570489901</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.34410539037115</v>
+        <v>-0.3428086990123836</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2392603620092454</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.351845608686775</v>
+        <v>-1.195552215428732</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.018878037764168</v>
+        <v>-2.036911562413578</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3720665938759879</v>
+        <v>-0.3614234780667344</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2564769864335898</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.342119813575351</v>
+        <v>-1.184937155970609</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.154744577637242</v>
+        <v>-2.184775851918963</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4293844993940634</v>
+        <v>-0.4139675344479028</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2709489765753354</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.337752171609158</v>
+        <v>-1.172536858691644</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.282497342747537</v>
+        <v>-2.323559032468246</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4212884123309097</v>
+        <v>-0.4182693049810068</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2821051311580438</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.319179477081503</v>
+        <v>-1.147084258930271</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.405868437716074</v>
+        <v>-2.446567224634118</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4600324034799766</v>
+        <v>-0.4459231084647638</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2895435140725279</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.421224695587544</v>
+        <v>-1.263091171647751</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.52000228403526</v>
+        <v>-2.562344197256464</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4874227212313784</v>
+        <v>-0.4778457467650804</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2926724832273508</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.436648979581825</v>
+        <v>-1.25666565731821</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.644157736994095</v>
+        <v>-2.68328292856613</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4854075433154028</v>
+        <v>-0.483441159053567</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.290908607212019</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.406049869150052</v>
+        <v>-1.215983948179115</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.779199664112206</v>
+        <v>-2.820803573314544</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5406657467081001</v>
+        <v>-0.5277988601114231</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2840998655370877</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.366268402929837</v>
+        <v>-1.182091266092902</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.872130228024924</v>
+        <v>-2.908739496805373</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5847764298918732</v>
+        <v>-0.5734489830833083</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2723221267259696</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.362747940783647</v>
+        <v>-1.169975801769979</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.996425047858395</v>
+        <v>-3.034315455020354</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.586367103016832</v>
+        <v>-0.5894703794201263</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2562894174059291</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.236399213071226</v>
+        <v>-1.057869941700979</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.028586775063997</v>
+        <v>-3.078202907236437</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5642867546771989</v>
+        <v>-0.5904230755172066</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2372505155397147</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.132973134153028</v>
+        <v>-0.9504683998117365</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.068919304615655</v>
+        <v>-3.112652446900521</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5813675832295283</v>
+        <v>-0.6003660023895535</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2161683909488147</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.9562608164788128</v>
+        <v>-0.7697922076593361</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.090021950110461</v>
+        <v>-3.154493920206452</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5548256651394831</v>
+        <v>-0.5786577056627367</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1942909432748717</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.7701727981616269</v>
+        <v>-0.5841122262748946</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.120646677210658</v>
+        <v>-3.202005216123434</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5907573120480646</v>
+        <v>-0.6093300065757197</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1722904867981698</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5739064235908693</v>
+        <v>-0.3981718087614816</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.131104987054856</v>
+        <v>-3.216401478817057</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5463288601917058</v>
+        <v>-0.5646947916099433</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1506503162182472</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3060109647428198</v>
+        <v>-0.1412829784460276</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.180631155927475</v>
+        <v>-3.24164792538969</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4911438472802183</v>
+        <v>-0.5186585888496766</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1301860451510103</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.02899292233264959</v>
+        <v>0.1313594930291521</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.156401142162644</v>
+        <v>-3.217682617198566</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4231578192051425</v>
+        <v>-0.4417671089734025</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1113162532967916</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1863962952161898</v>
+        <v>0.3481795844856425</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.183194347571509</v>
+        <v>-3.24300957330053</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3799760452120567</v>
+        <v>-0.4070126089709447</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.09459947690422467</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4719056532880465</v>
+        <v>0.6377644325195296</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.109745564955139</v>
+        <v>-3.179997448344334</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3146931855763284</v>
+        <v>-0.3504296578683506</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.08073636502898889</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6927103565257319</v>
+        <v>0.8634045868824737</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.047666008713692</v>
+        <v>-3.121011104815014</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2748757340361849</v>
+        <v>-0.3354048719173389</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.07018795074161115</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9873569362559512</v>
+        <v>1.120231815209576</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.985111934185734</v>
+        <v>-3.045178752193913</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.256791585970605</v>
+        <v>-0.3149682598015418</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.06414044990135966</v>
       </c>
       <c r="E87" t="n">
-        <v>1.191463231205628</v>
+        <v>1.324781522491249</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.862183641628516</v>
+        <v>-2.926698001211542</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2254197060413919</v>
+        <v>-0.2747147149775234</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.06414834221506398</v>
       </c>
       <c r="E88" t="n">
-        <v>1.336811597919428</v>
+        <v>1.462213118820859</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.700355828149661</v>
+        <v>-2.760809945787575</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1761381153601488</v>
+        <v>-0.2297855182455545</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.07140897441278483</v>
       </c>
       <c r="E89" t="n">
-        <v>1.443181154023612</v>
+        <v>1.539594365000562</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.450354832036723</v>
+        <v>-2.505949711642986</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1727994095756299</v>
+        <v>-0.21493943905283</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.08766258957094578</v>
       </c>
       <c r="E90" t="n">
-        <v>1.512085112717194</v>
+        <v>1.596058991491867</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.197356685718245</v>
+        <v>-2.266508272206586</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1512185862702534</v>
+        <v>-0.1727439067940459</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1126756856438143</v>
       </c>
       <c r="E91" t="n">
-        <v>1.527559410206969</v>
+        <v>1.593136861529567</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.836450153428147</v>
+        <v>-1.91677792639722</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.112797853079863</v>
+        <v>-0.1537223106483042</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1464397223653632</v>
       </c>
       <c r="E92" t="n">
-        <v>1.526806768091862</v>
+        <v>1.579966844356546</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.522125092983328</v>
+        <v>-1.585647111625285</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1003487621467584</v>
+        <v>-0.1456609890637251</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1872614479373474</v>
       </c>
       <c r="E93" t="n">
-        <v>1.491343540263023</v>
+        <v>1.536953408470243</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.188976050692034</v>
+        <v>-1.250650009683445</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.06604438360374061</v>
+        <v>-0.117184402587035</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2305365912900963</v>
       </c>
       <c r="E94" t="n">
-        <v>1.483237084548364</v>
+        <v>1.525012381460869</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.8755591621348935</v>
+        <v>-0.9339346701064501</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.07479857507710548</v>
+        <v>-0.1109235668402162</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2704171616942271</v>
       </c>
       <c r="E95" t="n">
-        <v>1.443133580210826</v>
+        <v>1.493306265000798</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6419601528610641</v>
+        <v>-0.6811524357075408</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1337974219802986</v>
+        <v>-0.1640988911218189</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3010393458518241</v>
       </c>
       <c r="E96" t="n">
-        <v>1.362034257585667</v>
+        <v>1.417403466541532</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3807512543922035</v>
+        <v>-0.4218342913365992</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2015779067873103</v>
+        <v>-0.232292292226989</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3173708689574408</v>
       </c>
       <c r="E97" t="n">
-        <v>1.271140828733288</v>
+        <v>1.328222694949462</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1871795093713189</v>
+        <v>-0.2437289148366918</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2207525930229157</v>
+        <v>-0.2642545753712942</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3179888917689871</v>
       </c>
       <c r="E98" t="n">
-        <v>1.189548690201316</v>
+        <v>1.240056221442823</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.04959543287252224</v>
+        <v>-0.0941379398954329</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2697054364593916</v>
+        <v>-0.3017500588950578</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3049953677192736</v>
       </c>
       <c r="E99" t="n">
-        <v>1.122271999873298</v>
+        <v>1.156975876459586</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1650478516886543</v>
+        <v>0.1054500626808946</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3126255544821525</v>
+        <v>-0.3449818463836369</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2849873737353941</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9500041741705467</v>
+        <v>0.9734409860952675</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2101478262101127</v>
+        <v>0.1712129298892237</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.287967681362582</v>
+        <v>-0.3165924785637219</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2666587433931408</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8226173614663008</v>
+        <v>0.8380965383214898</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2439118150335317</v>
+        <v>0.2176144751348624</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3377597756502632</v>
+        <v>-0.3694841897306367</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2597561858371988</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6983484632615909</v>
+        <v>0.7160105462188613</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2437373777199818</v>
+        <v>0.2149546110635642</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3104145920289407</v>
+        <v>-0.3383483491033251</v>
       </c>
     </row>
   </sheetData>
